--- a/Automated Control Chart(Excel VBA)/Automated Dynamic Chart.xlsx
+++ b/Automated Control Chart(Excel VBA)/Automated Dynamic Chart.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacknayem\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacknayem\Documents\GitHub\Data-Analysis-Excel-Spreadsheet\Automated Control Chart(Excel VBA)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C607144-0E1A-4453-82D5-62A0A07EE87E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0F39628-1CE5-4520-9150-CED847CA9F2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="22320" windowHeight="13176" xr2:uid="{16AEEFB5-C2B2-4BF3-9AB9-4B9151C0E120}"/>
   </bookViews>
@@ -141,7 +141,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="\±\ 0.0"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +203,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -587,10 +593,11 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Automated Control Chart'!$A$16:$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -633,56 +640,113 @@
                 <c:pt idx="13">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>[0]!Actual_Data</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>9.4285837576696938</c:v>
+                  <c:v>5.3832713088093502</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9851524264111413</c:v>
+                  <c:v>4.8912729596983304</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9157604537245496</c:v>
+                  <c:v>8.8017876680012357</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.6351326753228355</c:v>
+                  <c:v>6.6729434651203805</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.386961681527322</c:v>
+                  <c:v>6.6512292937952644</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5.8171830092165635</c:v>
+                  <c:v>5.6393889848778223</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.645461511325931</c:v>
+                  <c:v>3.4136332667362104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6041192122118892</c:v>
+                  <c:v>6.307213553901831</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4.1212834025929448</c:v>
+                  <c:v>7.0172092498346297</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.673253843571072</c:v>
+                  <c:v>8.7280171672520108</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7.1350211725510775</c:v>
+                  <c:v>7.9467552394657472</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>6.1657389856603197</c:v>
+                  <c:v>1.9955102743628199</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>6.3070572349736249</c:v>
+                  <c:v>6.2178075356496816</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4.4334547344194188</c:v>
+                  <c:v>8.7594454182384176</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.6485812512427103</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.9239350754156845</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.0123022242588924</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.0688832264860419</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.8141422446327091</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2480764129559789</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.5182920701548674</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4.7727500092246729</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8142388181530951</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4.6120258978493638</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.070134046419644</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9057448844929246</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.4428810199925506</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -727,10 +791,11 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Automated Control Chart'!$A$16:$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -773,15 +838,33 @@
                 <c:pt idx="13">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>[0]!LCL</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -822,6 +905,45 @@
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
@@ -867,10 +989,11 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Automated Control Chart'!$A$16:$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -913,15 +1036,33 @@
                 <c:pt idx="13">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>[0]!LWL</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
@@ -962,6 +1103,45 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
@@ -1007,10 +1187,11 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Automated Control Chart'!$A$16:$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1053,15 +1234,33 @@
                 <c:pt idx="13">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>[0]!UWL</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>8</c:v>
                 </c:pt>
@@ -1102,6 +1301,45 @@
                   <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
@@ -1147,10 +1385,11 @@
             <c:symbol val="none"/>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Automated Control Chart'!$A$16:$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1193,15 +1432,33 @@
                 <c:pt idx="13">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>[0]!UCL</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1242,6 +1499,45 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>10</c:v>
                 </c:pt>
               </c:numCache>
@@ -1304,10 +1600,11 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Automated Control Chart'!$A$16:$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1350,23 +1647,41 @@
                 <c:pt idx="13">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>[0]!Warming</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
-                  <c:v>9.4285837576696938</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9851524264111413</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9157604537245496</c:v>
+                  <c:v>8.8017876680012357</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>#N/A</c:v>
@@ -1378,16 +1693,16 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.645461511325931</c:v>
+                  <c:v>3.4136332667362104</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.6041192122118892</c:v>
+                  <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>2.673253843571072</c:v>
+                  <c:v>8.7280171672520108</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>#N/A</c:v>
@@ -1399,6 +1714,45 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>8.7594454182384176</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.8142388181530951</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.9057448844929246</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -1463,10 +1817,11 @@
             </c:spPr>
           </c:marker>
           <c:cat>
-            <c:strRef>
+            <c:numRef>
               <c:f>'Automated Control Chart'!$A$16:$A$35</c:f>
-              <c:strCache>
-                <c:ptCount val="14"/>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="20"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -1509,15 +1864,33 @@
                 <c:pt idx="13">
                   <c:v>14</c:v>
                 </c:pt>
-              </c:strCache>
-            </c:strRef>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
               <c:f>[0]!Critical</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="27"/>
                 <c:pt idx="0">
                   <c:v>#N/A</c:v>
                 </c:pt>
@@ -1552,12 +1925,51 @@
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.9955102743628199</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>#N/A</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.070134046419644</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>#N/A</c:v>
+                </c:pt>
+                <c:pt idx="26">
                   <c:v>#N/A</c:v>
                 </c:pt>
               </c:numCache>
@@ -1590,7 +2002,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3482,7 +3894,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8E76947-EA23-43F8-8911-BB6E69FA6211}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3518,7 +3930,7 @@
         <xdr:cNvPr id="6" name="Chart 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4528D8AB-8238-4BB9-83D8-4969B1B6FF33}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3556,7 +3968,7 @@
         <xdr:cNvPr id="7" name="Straight Connector 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDED1CB1-0546-4F57-93E4-3CDCC618A0AD}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3663,7 +4075,7 @@
       <xdr:twoCellAnchor>
         <xdr:from>
           <xdr:col>12</xdr:col>
-          <xdr:colOff>107576</xdr:colOff>
+          <xdr:colOff>106680</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>45720</xdr:rowOff>
         </xdr:from>
@@ -4031,7 +4443,7 @@
   <dimension ref="A1:X998"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4337,7 +4749,7 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>9.4285837576696938</v>
+        <v>5.3832713088093502</v>
       </c>
       <c r="C16" s="1">
         <f>IF(B16="","",$F$6-$F$8)</f>
@@ -4355,9 +4767,9 @@
         <f>IF(B16="","",$F$6+$F$8)</f>
         <v>10</v>
       </c>
-      <c r="G16">
+      <c r="G16" t="e">
         <f>IF(B16="","",IF(AND(ISERROR(H16),ABS(B16-$F$6)&gt; $F$7), B16,#N/A))</f>
-        <v>9.4285837576696938</v>
+        <v>#N/A</v>
       </c>
       <c r="H16" t="e">
         <f>IF(B16="","",IF(ABS(B16-$F$6)&gt;$F$8, B16,#N/A))</f>
@@ -4370,7 +4782,7 @@
         <v>2</v>
       </c>
       <c r="B17">
-        <v>2.9851524264111413</v>
+        <v>4.8912729596983304</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" ref="C17:C80" si="1">IF(B17="","",$F$6-$F$8)</f>
@@ -4388,9 +4800,9 @@
         <f t="shared" ref="F17:F36" si="4">IF(B17="","",$F$6+$F$8)</f>
         <v>10</v>
       </c>
-      <c r="G17">
+      <c r="G17" t="e">
         <f t="shared" ref="G17:G80" si="5">IF(B17="","",IF(AND(ISERROR(H17),ABS(B17-$F$6)&gt; $F$7), B17,#N/A))</f>
-        <v>2.9851524264111413</v>
+        <v>#N/A</v>
       </c>
       <c r="H17" t="e">
         <f t="shared" ref="H17:H80" si="6">IF(B17="","",IF(ABS(B17-$F$6)&gt;$F$8, B17,#N/A))</f>
@@ -4403,7 +4815,7 @@
         <v>3</v>
       </c>
       <c r="B18">
-        <v>2.9157604537245496</v>
+        <v>8.8017876680012357</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="1"/>
@@ -4423,7 +4835,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="5"/>
-        <v>2.9157604537245496</v>
+        <v>8.8017876680012357</v>
       </c>
       <c r="H18" t="e">
         <f t="shared" si="6"/>
@@ -4436,7 +4848,7 @@
         <v>4</v>
       </c>
       <c r="B19">
-        <v>7.6351326753228355</v>
+        <v>6.6729434651203805</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="1"/>
@@ -4469,7 +4881,7 @@
         <v>5</v>
       </c>
       <c r="B20">
-        <v>5.386961681527322</v>
+        <v>6.6512292937952644</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="1"/>
@@ -4502,7 +4914,7 @@
         <v>6</v>
       </c>
       <c r="B21">
-        <v>5.8171830092165635</v>
+        <v>5.6393889848778223</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="1"/>
@@ -4535,7 +4947,7 @@
         <v>7</v>
       </c>
       <c r="B22">
-        <v>3.645461511325931</v>
+        <v>3.4136332667362104</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="1"/>
@@ -4555,7 +4967,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="5"/>
-        <v>3.645461511325931</v>
+        <v>3.4136332667362104</v>
       </c>
       <c r="H22" t="e">
         <f t="shared" si="6"/>
@@ -4568,7 +4980,7 @@
         <v>8</v>
       </c>
       <c r="B23">
-        <v>3.6041192122118892</v>
+        <v>6.307213553901831</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="1"/>
@@ -4586,9 +4998,9 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="G23">
+      <c r="G23" t="e">
         <f t="shared" si="5"/>
-        <v>3.6041192122118892</v>
+        <v>#N/A</v>
       </c>
       <c r="H23" t="e">
         <f t="shared" si="6"/>
@@ -4601,7 +5013,7 @@
         <v>9</v>
       </c>
       <c r="B24">
-        <v>4.1212834025929448</v>
+        <v>7.0172092498346297</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="1"/>
@@ -4634,7 +5046,7 @@
         <v>10</v>
       </c>
       <c r="B25">
-        <v>2.673253843571072</v>
+        <v>8.7280171672520108</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="1"/>
@@ -4654,7 +5066,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="5"/>
-        <v>2.673253843571072</v>
+        <v>8.7280171672520108</v>
       </c>
       <c r="H25" t="e">
         <f t="shared" si="6"/>
@@ -4667,7 +5079,7 @@
         <v>11</v>
       </c>
       <c r="B26">
-        <v>7.1350211725510775</v>
+        <v>7.9467552394657472</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="1"/>
@@ -4700,7 +5112,7 @@
         <v>12</v>
       </c>
       <c r="B27">
-        <v>6.1657389856603197</v>
+        <v>1.9955102743628199</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="1"/>
@@ -4722,9 +5134,9 @@
         <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
-      <c r="H27" t="e">
+      <c r="H27">
         <f t="shared" si="6"/>
-        <v>#N/A</v>
+        <v>1.9955102743628199</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -4733,7 +5145,7 @@
         <v>13</v>
       </c>
       <c r="B28">
-        <v>6.3070572349736249</v>
+        <v>6.2178075356496816</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="1"/>
@@ -4766,7 +5178,7 @@
         <v>14</v>
       </c>
       <c r="B29">
-        <v>4.4334547344194188</v>
+        <v>8.7594454182384176</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="1"/>
@@ -4784,9 +5196,9 @@
         <f t="shared" si="4"/>
         <v>10</v>
       </c>
-      <c r="G29" t="e">
+      <c r="G29">
         <f t="shared" si="5"/>
-        <v>#N/A</v>
+        <v>8.7594454182384176</v>
       </c>
       <c r="H29" t="e">
         <f t="shared" si="6"/>
@@ -4794,393 +5206,432 @@
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="str">
+      <c r="A30" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C30" s="1" t="str">
+        <v>15</v>
+      </c>
+      <c r="B30">
+        <v>5.6485812512427103</v>
+      </c>
+      <c r="C30" s="1">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D30" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="D30" s="1">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E30" s="1" t="str">
+        <v>4</v>
+      </c>
+      <c r="E30" s="1">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F30" s="1" t="str">
+        <v>8</v>
+      </c>
+      <c r="F30" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G30" t="str">
+        <v>10</v>
+      </c>
+      <c r="G30" t="e">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H30" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H30" t="e">
         <f t="shared" si="6"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="str">
+      <c r="A31" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C31" s="1" t="str">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>6.9239350754156845</v>
+      </c>
+      <c r="C31" s="1">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D31" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E31" s="1" t="str">
+        <v>4</v>
+      </c>
+      <c r="E31" s="1">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F31" s="1" t="str">
+        <v>8</v>
+      </c>
+      <c r="F31" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G31" t="str">
+        <v>10</v>
+      </c>
+      <c r="G31" t="e">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H31" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H31" t="e">
         <f t="shared" si="6"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="str">
+      <c r="A32" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C32" s="1" t="str">
+        <v>17</v>
+      </c>
+      <c r="B32">
+        <v>6.0123022242588924</v>
+      </c>
+      <c r="C32" s="1">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D32" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="D32" s="1">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E32" s="1" t="str">
+        <v>4</v>
+      </c>
+      <c r="E32" s="1">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F32" s="1" t="str">
+        <v>8</v>
+      </c>
+      <c r="F32" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G32" t="str">
+        <v>10</v>
+      </c>
+      <c r="G32" t="e">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H32" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H32" t="e">
         <f t="shared" si="6"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="str">
+      <c r="A33" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C33" s="1" t="str">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <v>6.0688832264860419</v>
+      </c>
+      <c r="C33" s="1">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D33" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="D33" s="1">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E33" s="1" t="str">
+        <v>4</v>
+      </c>
+      <c r="E33" s="1">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F33" s="1" t="str">
+        <v>8</v>
+      </c>
+      <c r="F33" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G33" t="str">
+        <v>10</v>
+      </c>
+      <c r="G33" t="e">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H33" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H33" t="e">
         <f t="shared" si="6"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="str">
+      <c r="A34" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C34" s="1" t="str">
+        <v>19</v>
+      </c>
+      <c r="B34">
+        <v>5.8141422446327091</v>
+      </c>
+      <c r="C34" s="1">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D34" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="D34" s="1">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E34" s="1" t="str">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F34" s="1" t="str">
+        <v>8</v>
+      </c>
+      <c r="F34" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G34" t="str">
+        <v>10</v>
+      </c>
+      <c r="G34" t="e">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H34" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H34" t="e">
         <f t="shared" si="6"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="str">
+      <c r="A35" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C35" s="1" t="str">
+        <v>20</v>
+      </c>
+      <c r="B35">
+        <v>5.2480764129559789</v>
+      </c>
+      <c r="C35" s="1">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D35" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E35" s="1" t="str">
+        <v>4</v>
+      </c>
+      <c r="E35" s="1">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F35" s="1" t="str">
+        <v>8</v>
+      </c>
+      <c r="F35" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G35" t="str">
+        <v>10</v>
+      </c>
+      <c r="G35" t="e">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H35" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H35" t="e">
         <f t="shared" si="6"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="str">
+      <c r="A36" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C36" s="1" t="str">
+        <v>21</v>
+      </c>
+      <c r="B36">
+        <v>5.5182920701548674</v>
+      </c>
+      <c r="C36" s="1">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D36" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="D36" s="1">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="E36" s="1" t="str">
+        <v>4</v>
+      </c>
+      <c r="E36" s="1">
         <f t="shared" si="3"/>
-        <v/>
-      </c>
-      <c r="F36" s="1" t="str">
+        <v>8</v>
+      </c>
+      <c r="F36" s="1">
         <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="G36" t="str">
+        <v>10</v>
+      </c>
+      <c r="G36" t="e">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H36" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H36" t="e">
         <f t="shared" si="6"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="str">
+      <c r="A37" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C37" s="1" t="str">
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>4.7727500092246729</v>
+      </c>
+      <c r="C37" s="1">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D37" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="D37" s="1">
         <f t="shared" ref="D37:D100" si="7">IF(B37="","",$F$6-$F$7)</f>
-        <v/>
-      </c>
-      <c r="E37" s="1" t="str">
+        <v>4</v>
+      </c>
+      <c r="E37" s="1">
         <f t="shared" ref="E37:E100" si="8">IF(B37="","",$F$6+$F$7)</f>
-        <v/>
-      </c>
-      <c r="F37" s="1" t="str">
+        <v>8</v>
+      </c>
+      <c r="F37" s="1">
         <f t="shared" ref="F37:F100" si="9">IF(B37="","",$F$6+$F$8)</f>
-        <v/>
-      </c>
-      <c r="G37" t="str">
+        <v>10</v>
+      </c>
+      <c r="G37" t="e">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H37" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H37" t="e">
         <f t="shared" si="6"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="str">
+      <c r="A38" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C38" s="1" t="str">
+        <v>23</v>
+      </c>
+      <c r="B38">
+        <v>2.8142388181530951</v>
+      </c>
+      <c r="C38" s="1">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D38" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="D38" s="1">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="E38" s="1" t="str">
+        <v>4</v>
+      </c>
+      <c r="E38" s="1">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F38" s="1" t="str">
+        <v>8</v>
+      </c>
+      <c r="F38" s="1">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G38" t="str">
+        <v>10</v>
+      </c>
+      <c r="G38">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H38" t="str">
+        <v>2.8142388181530951</v>
+      </c>
+      <c r="H38" t="e">
         <f t="shared" si="6"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="str">
+      <c r="A39" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C39" s="1" t="str">
+        <v>24</v>
+      </c>
+      <c r="B39">
+        <v>4.6120258978493638</v>
+      </c>
+      <c r="C39" s="1">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D39" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="D39" s="1">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="E39" s="1" t="str">
+        <v>4</v>
+      </c>
+      <c r="E39" s="1">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F39" s="1" t="str">
+        <v>8</v>
+      </c>
+      <c r="F39" s="1">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G39" t="str">
+        <v>10</v>
+      </c>
+      <c r="G39" t="e">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H39" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H39" t="e">
         <f t="shared" si="6"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="str">
+      <c r="A40" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C40" s="1" t="str">
+        <v>25</v>
+      </c>
+      <c r="B40">
+        <v>10.070134046419644</v>
+      </c>
+      <c r="C40" s="1">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D40" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="E40" s="1" t="str">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F40" s="1" t="str">
+        <v>8</v>
+      </c>
+      <c r="F40" s="1">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G40" t="str">
+        <v>10</v>
+      </c>
+      <c r="G40" t="e">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H40" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="6"/>
-        <v/>
+        <v>10.070134046419644</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="str">
+      <c r="A41" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C41" s="1" t="str">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>2.9057448844929246</v>
+      </c>
+      <c r="C41" s="1">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D41" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="D41" s="1">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="E41" s="1" t="str">
+        <v>4</v>
+      </c>
+      <c r="E41" s="1">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F41" s="1" t="str">
+        <v>8</v>
+      </c>
+      <c r="F41" s="1">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G41" t="str">
+        <v>10</v>
+      </c>
+      <c r="G41">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H41" t="str">
+        <v>2.9057448844929246</v>
+      </c>
+      <c r="H41" t="e">
         <f t="shared" si="6"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="str">
+      <c r="A42" s="2">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-      <c r="C42" s="1" t="str">
+        <v>27</v>
+      </c>
+      <c r="B42">
+        <v>5.4428810199925506</v>
+      </c>
+      <c r="C42" s="1">
         <f t="shared" si="1"/>
-        <v/>
-      </c>
-      <c r="D42" s="1" t="str">
+        <v>2</v>
+      </c>
+      <c r="D42" s="1">
         <f t="shared" si="7"/>
-        <v/>
-      </c>
-      <c r="E42" s="1" t="str">
+        <v>4</v>
+      </c>
+      <c r="E42" s="1">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F42" s="1" t="str">
+        <v>8</v>
+      </c>
+      <c r="F42" s="1">
         <f t="shared" si="9"/>
-        <v/>
-      </c>
-      <c r="G42" t="str">
+        <v>10</v>
+      </c>
+      <c r="G42" t="e">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="H42" t="str">
+        <v>#N/A</v>
+      </c>
+      <c r="H42" t="e">
         <f t="shared" si="6"/>
-        <v/>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
